--- a/Lab1/Graphs.xlsx
+++ b/Lab1/Graphs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>LinearSearch</t>
   </si>
@@ -279,34 +279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>694</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>431</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,34 +626,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,31 +973,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
@@ -3273,7 +3273,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,13 +3307,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3328,13 +3328,13 @@
         <v>200</v>
       </c>
       <c r="B3" s="2">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3349,10 +3349,10 @@
         <v>300</v>
       </c>
       <c r="B4" s="2">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -3370,13 +3370,13 @@
         <v>400</v>
       </c>
       <c r="B5" s="2">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3391,10 +3391,10 @@
         <v>500</v>
       </c>
       <c r="B6" s="2">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -3412,13 +3412,13 @@
         <v>600</v>
       </c>
       <c r="B7" s="2">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3433,13 +3433,13 @@
         <v>700</v>
       </c>
       <c r="B8" s="2">
-        <v>101</v>
+        <v>484</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3454,10 +3454,10 @@
         <v>800</v>
       </c>
       <c r="B9" s="2">
-        <v>694</v>
+        <v>603</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -3475,13 +3475,13 @@
         <v>900</v>
       </c>
       <c r="B10" s="2">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3496,10 +3496,10 @@
         <v>1000</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="C11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
